--- a/database/industries/darou/dalber/product/quarterly.xlsx
+++ b/database/industries/darou/dalber/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845EA86-0924-402C-914A-38A3EA6EA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CDED2-EC09-4562-B164-000F3EEB3FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -112,6 +127,12 @@
     <t>ریال</t>
   </si>
   <si>
+    <t>جعبه صد عددی</t>
+  </si>
+  <si>
+    <t>جعبه صدعددی</t>
+  </si>
+  <si>
     <t>خدمات ارائه شده.</t>
   </si>
   <si>
@@ -122,9 +143,6 @@
   </si>
   <si>
     <t>جامدات ( خالص )</t>
-  </si>
-  <si>
-    <t>جعبه صدعددی</t>
   </si>
   <si>
     <t>فرآوردهای تزریقی ( خالص )</t>
@@ -631,16 +649,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I120"/>
+  <dimension ref="B1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -649,8 +667,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,8 +684,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -673,8 +701,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,8 +716,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -695,8 +733,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -707,8 +750,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -717,8 +765,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -739,8 +792,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -749,242 +817,397 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>108062</v>
+      </c>
+      <c r="F10" s="9">
+        <v>29691940</v>
+      </c>
+      <c r="G10" s="9">
+        <v>38138743</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5249386</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6219459</v>
+      </c>
+      <c r="J10" s="9">
         <v>4838868</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>6228958</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>7872909</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>9326138</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>12153505</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>7226889</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7869569</v>
+      </c>
+      <c r="G12" s="9">
+        <v>6494280</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4954231</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5838206</v>
+      </c>
+      <c r="J12" s="9">
         <v>5326032</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>4503825</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>3927120</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>5374052</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>6654721</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>172016</v>
+      </c>
+      <c r="F13" s="11">
+        <v>213261</v>
+      </c>
+      <c r="G13" s="11">
+        <v>227445</v>
+      </c>
+      <c r="H13" s="11">
+        <v>202666</v>
+      </c>
+      <c r="I13" s="11">
+        <v>220548</v>
+      </c>
+      <c r="J13" s="11">
         <v>235861</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>222376</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>182236</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>272226</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>279500</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
+        <v>7506967</v>
+      </c>
+      <c r="F19" s="13">
+        <v>37774770</v>
+      </c>
+      <c r="G19" s="13">
+        <v>44860468</v>
+      </c>
+      <c r="H19" s="13">
+        <v>10406283</v>
+      </c>
+      <c r="I19" s="13">
+        <v>12278213</v>
+      </c>
+      <c r="J19" s="13">
         <v>10400761</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>10955159</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>11982265</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>14972416</v>
       </c>
-      <c r="I19" s="13">
+      <c r="N19" s="13">
         <v>19087726</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -993,8 +1216,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1003,8 +1231,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1013,10 +1246,15 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1035,8 +1273,23 @@
       <c r="I23" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1045,520 +1298,898 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
+        <v>9214486</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2458741</v>
+      </c>
+      <c r="G26" s="11">
+        <v>3039723</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3881141</v>
+      </c>
+      <c r="I26" s="11">
+        <v>6525428</v>
+      </c>
+      <c r="J26" s="11">
         <v>7273160</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11">
+      <c r="K26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="11">
         <v>8314944</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>9903292</v>
       </c>
-      <c r="I26" s="11">
+      <c r="N26" s="11">
         <v>11800925</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>13</v>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="9">
+        <v>18</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9">
+        <v>5831798</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="9">
         <v>5748409</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>7846389</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>6933007</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>3949874</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>13</v>
+        <v>6722983</v>
+      </c>
+      <c r="F30" s="11">
+        <v>5933503</v>
+      </c>
+      <c r="G30" s="11">
+        <v>4898506</v>
+      </c>
+      <c r="H30" s="11">
+        <v>5018533</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="9">
+        <v>18</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="9">
+        <v>3949874</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
+        <v>185341</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="11">
         <v>192493</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M32" s="11">
         <v>317684</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N32" s="11">
         <v>250458</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11">
-        <v>214744</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>13</v>
+      <c r="E33" s="9">
+        <v>171321</v>
+      </c>
+      <c r="F33" s="9">
+        <v>-96575</v>
+      </c>
+      <c r="G33" s="9">
+        <v>208535</v>
+      </c>
+      <c r="H33" s="9">
+        <v>243099</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>45589</v>
+      <c r="E34" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
-        <v>-79815</v>
-      </c>
-      <c r="H34" s="11">
-        <v>79815</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="11">
+        <v>214744</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I36" s="11">
+        <v>-45589</v>
+      </c>
+      <c r="J36" s="11">
+        <v>45589</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
+        <v>-79815</v>
+      </c>
+      <c r="M36" s="11">
+        <v>79815</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C41" s="9">
+        <v>0</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15">
+        <v>16108790</v>
+      </c>
+      <c r="F47" s="15">
+        <v>8295669</v>
+      </c>
+      <c r="G47" s="15">
+        <v>8146764</v>
+      </c>
+      <c r="H47" s="15">
+        <v>9142773</v>
+      </c>
+      <c r="I47" s="15">
+        <v>12496978</v>
+      </c>
+      <c r="J47" s="15">
         <v>11483367</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K47" s="15">
         <v>0</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L47" s="15">
         <v>14176031</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M47" s="15">
         <v>18147180</v>
       </c>
-      <c r="I45" s="15">
+      <c r="N47" s="15">
         <v>18984390</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1567,30 +2198,28 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1599,482 +2228,804 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11">
-        <v>630765</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11">
-        <v>805139</v>
-      </c>
-      <c r="H52" s="11">
-        <v>1029647</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1459258</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N51" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="11">
+        <v>621363</v>
+      </c>
+      <c r="F54" s="11">
+        <v>598587</v>
+      </c>
+      <c r="G54" s="11">
+        <v>304071</v>
+      </c>
+      <c r="H54" s="11">
+        <v>438170</v>
+      </c>
+      <c r="I54" s="11">
+        <v>688845</v>
+      </c>
+      <c r="J54" s="11">
+        <v>630765</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
+        <v>805139</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1029647</v>
+      </c>
+      <c r="N54" s="11">
+        <v>1459258</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>1154420</v>
+      <c r="E55" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9">
-        <v>1346674</v>
-      </c>
-      <c r="H55" s="9">
-        <v>2039188</v>
-      </c>
-      <c r="I55" s="9">
-        <v>2499322</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>2005959</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>13</v>
+        <v>-122858</v>
+      </c>
+      <c r="F56" s="11">
+        <v>-50084</v>
       </c>
       <c r="G56" s="11">
-        <v>2595264</v>
+        <v>-184290</v>
       </c>
       <c r="H56" s="11">
-        <v>2910966</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2710144</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-34032</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="9">
+        <v>1318982</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1120205</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1526252</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1074999</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1461106</v>
+      </c>
+      <c r="J57" s="9">
+        <v>1154420</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="9">
+        <v>1346674</v>
+      </c>
+      <c r="M57" s="9">
+        <v>2039188</v>
+      </c>
+      <c r="N57" s="9">
+        <v>2499322</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>-14463</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>13</v>
+        <v>612503</v>
+      </c>
+      <c r="F58" s="11">
+        <v>414040</v>
       </c>
       <c r="G58" s="11">
-        <v>-39042</v>
+        <v>1059706</v>
       </c>
       <c r="H58" s="11">
-        <v>-140791</v>
+        <v>1350018</v>
       </c>
       <c r="I58" s="11">
-        <v>-61781</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2003419</v>
+      </c>
+      <c r="J58" s="11">
+        <v>2005959</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="11">
+        <v>2595264</v>
+      </c>
+      <c r="M58" s="11">
+        <v>2910966</v>
+      </c>
+      <c r="N58" s="11">
+        <v>2710144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>13</v>
+      <c r="E60" s="11">
+        <v>-240368</v>
+      </c>
+      <c r="F60" s="11">
+        <v>-6512</v>
+      </c>
+      <c r="G60" s="11">
+        <v>-467584</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I60" s="11">
+        <v>-647895</v>
+      </c>
+      <c r="J60" s="11">
+        <v>-14463</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11">
+        <v>-39042</v>
+      </c>
+      <c r="M60" s="11">
+        <v>-140791</v>
+      </c>
+      <c r="N60" s="11">
+        <v>-61781</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>103417</v>
+      </c>
+      <c r="F64" s="11">
+        <v>150081</v>
+      </c>
+      <c r="G64" s="11">
+        <v>122130</v>
+      </c>
+      <c r="H64" s="11">
+        <v>8072</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15">
+        <v>18</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9">
+        <v>5249</v>
+      </c>
+      <c r="F69" s="9">
+        <v>-12244</v>
+      </c>
+      <c r="G69" s="9">
+        <v>10514</v>
+      </c>
+      <c r="H69" s="9">
+        <v>6853</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>18738</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1131</v>
+      </c>
+      <c r="H70" s="11">
+        <v>9745</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15">
+        <v>2298288</v>
+      </c>
+      <c r="F71" s="15">
+        <v>2232811</v>
+      </c>
+      <c r="G71" s="15">
+        <v>2371930</v>
+      </c>
+      <c r="H71" s="15">
+        <v>2853825</v>
+      </c>
+      <c r="I71" s="15">
+        <v>3505475</v>
+      </c>
+      <c r="J71" s="15">
         <v>3776681</v>
       </c>
-      <c r="F69" s="15">
+      <c r="K71" s="15">
         <v>0</v>
       </c>
-      <c r="G69" s="15">
+      <c r="L71" s="15">
         <v>4708035</v>
       </c>
-      <c r="H69" s="15">
+      <c r="M71" s="15">
         <v>5839010</v>
       </c>
-      <c r="I69" s="15">
+      <c r="N71" s="15">
         <v>6606943</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2083,30 +3034,28 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2115,460 +3064,767 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>74180</v>
-      </c>
-      <c r="F76" s="11">
-        <v>123435</v>
-      </c>
-      <c r="G76" s="11">
-        <v>96830</v>
-      </c>
-      <c r="H76" s="11">
-        <v>103970</v>
-      </c>
-      <c r="I76" s="11">
-        <v>123656</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N75" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E78" s="11">
+        <v>67433</v>
+      </c>
+      <c r="F78" s="11">
+        <v>102083</v>
+      </c>
+      <c r="G78" s="11">
+        <v>119343</v>
+      </c>
+      <c r="H78" s="11">
+        <v>112897</v>
+      </c>
+      <c r="I78" s="11">
+        <v>105563</v>
+      </c>
+      <c r="J78" s="11">
+        <v>74180</v>
+      </c>
+      <c r="K78" s="11">
+        <v>123435</v>
+      </c>
+      <c r="L78" s="11">
+        <v>96830</v>
+      </c>
+      <c r="M78" s="11">
+        <v>103970</v>
+      </c>
+      <c r="N78" s="11">
+        <v>123656</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9">
+      <c r="E79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9">
+        <v>196190</v>
+      </c>
+      <c r="F81" s="9">
+        <v>190864</v>
+      </c>
+      <c r="G81" s="9">
+        <v>236701</v>
+      </c>
+      <c r="H81" s="9">
+        <v>214206</v>
+      </c>
+      <c r="I81" s="9">
+        <v>250541</v>
+      </c>
+      <c r="J81" s="9">
         <v>229980</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K81" s="9">
         <v>222958</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L81" s="9">
         <v>234269</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M81" s="9">
         <v>259889</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N81" s="9">
         <v>360496</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>8150924</v>
-      </c>
-      <c r="F80" s="11">
-        <v>11239821</v>
-      </c>
-      <c r="G80" s="11">
-        <v>13482381</v>
-      </c>
-      <c r="H80" s="11">
-        <v>9163087</v>
-      </c>
-      <c r="I80" s="11">
-        <v>10820752</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>12687403</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>13</v>
+        <v>3575178</v>
+      </c>
+      <c r="F82" s="11">
+        <v>2335034</v>
       </c>
       <c r="G82" s="11">
-        <v>489156</v>
+        <v>4574321</v>
       </c>
       <c r="H82" s="11">
-        <v>-1763967</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>5553367</v>
+      </c>
+      <c r="I82" s="11">
+        <v>10809368</v>
+      </c>
+      <c r="J82" s="11">
+        <v>8150924</v>
+      </c>
+      <c r="K82" s="11">
+        <v>11239821</v>
+      </c>
+      <c r="L82" s="11">
+        <v>13482381</v>
+      </c>
+      <c r="M82" s="11">
+        <v>9163087</v>
+      </c>
+      <c r="N82" s="11">
+        <v>10820752</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I84" s="11">
+        <v>14211652</v>
+      </c>
+      <c r="J84" s="11">
+        <v>12687403</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="11">
+        <v>489156</v>
+      </c>
+      <c r="M84" s="11">
+        <v>-1763967</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2577,30 +3833,28 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B96" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2609,242 +3863,414 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="8" t="s">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9">
-        <v>-353832</v>
-      </c>
-      <c r="F98" s="9">
-        <v>-296775</v>
-      </c>
-      <c r="G98" s="9">
-        <v>-460068</v>
-      </c>
-      <c r="H98" s="9">
-        <v>-648641</v>
-      </c>
-      <c r="I98" s="9">
-        <v>-758484</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
+      <c r="K98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N98" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>-636623</v>
+        <v>-212835</v>
       </c>
       <c r="F100" s="9">
-        <v>-641874</v>
+        <v>-219132</v>
       </c>
       <c r="G100" s="9">
-        <v>-803556</v>
+        <v>-204861</v>
       </c>
       <c r="H100" s="9">
-        <v>-1076445</v>
+        <v>-201397</v>
       </c>
       <c r="I100" s="9">
-        <v>-1307411</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-284161</v>
+      </c>
+      <c r="J100" s="9">
+        <v>-353832</v>
+      </c>
+      <c r="K100" s="9">
+        <v>-296775</v>
+      </c>
+      <c r="L100" s="9">
+        <v>-460068</v>
+      </c>
+      <c r="M100" s="9">
+        <v>-648641</v>
+      </c>
+      <c r="N100" s="9">
+        <v>-758484</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>-671717</v>
+        <v>0</v>
       </c>
       <c r="F101" s="11">
-        <v>-2026676</v>
+        <v>0</v>
       </c>
       <c r="G101" s="11">
-        <v>-1712101</v>
+        <v>0</v>
       </c>
       <c r="H101" s="11">
-        <v>-1756498</v>
-      </c>
-      <c r="I101" s="11">
-        <v>-1594488</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
+        <v>-548456</v>
+      </c>
+      <c r="F102" s="9">
+        <v>-491471</v>
+      </c>
+      <c r="G102" s="9">
+        <v>-588480</v>
+      </c>
+      <c r="H102" s="9">
+        <v>-560079</v>
+      </c>
+      <c r="I102" s="9">
+        <v>-745948</v>
+      </c>
+      <c r="J102" s="9">
+        <v>-636623</v>
+      </c>
+      <c r="K102" s="9">
+        <v>-641874</v>
+      </c>
+      <c r="L102" s="9">
+        <v>-803556</v>
+      </c>
+      <c r="M102" s="9">
+        <v>-1076445</v>
+      </c>
+      <c r="N102" s="9">
+        <v>-1307411</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11">
+        <v>-302008</v>
+      </c>
+      <c r="F103" s="11">
+        <v>-248154</v>
+      </c>
+      <c r="G103" s="11">
+        <v>-610670</v>
+      </c>
+      <c r="H103" s="11">
+        <v>-781173</v>
+      </c>
+      <c r="I103" s="11">
+        <v>-756959</v>
+      </c>
+      <c r="J103" s="11">
+        <v>-671717</v>
+      </c>
+      <c r="K103" s="11">
+        <v>-2026676</v>
+      </c>
+      <c r="L103" s="11">
+        <v>-1712101</v>
+      </c>
+      <c r="M103" s="11">
+        <v>-1756498</v>
+      </c>
+      <c r="N103" s="11">
+        <v>-1594488</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9">
         <v>0</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F104" s="9">
         <v>0</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G104" s="9">
         <v>0</v>
       </c>
-      <c r="H102" s="9">
+      <c r="H104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9">
         <v>0</v>
       </c>
-      <c r="I102" s="9">
+      <c r="J104" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K104" s="9">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9">
+        <v>0</v>
+      </c>
+      <c r="N104" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>13</v>
+      <c r="E105" s="11">
+        <v>-28703</v>
+      </c>
+      <c r="F105" s="11">
+        <v>-41810</v>
+      </c>
+      <c r="G105" s="11">
+        <v>-71749</v>
+      </c>
+      <c r="H105" s="11">
+        <v>-3099</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15">
+        <v>18</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9">
+        <v>-8388</v>
+      </c>
+      <c r="F106" s="9">
+        <v>5362</v>
+      </c>
+      <c r="G106" s="9">
+        <v>-12</v>
+      </c>
+      <c r="H106" s="9">
+        <v>-5747</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11">
+        <v>0</v>
+      </c>
+      <c r="F107" s="11">
+        <v>-12409</v>
+      </c>
+      <c r="G107" s="11">
+        <v>1756</v>
+      </c>
+      <c r="H107" s="11">
+        <v>-5550</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15">
+        <v>-1100390</v>
+      </c>
+      <c r="F108" s="15">
+        <v>-1007614</v>
+      </c>
+      <c r="G108" s="15">
+        <v>-1474016</v>
+      </c>
+      <c r="H108" s="15">
+        <v>-1557045</v>
+      </c>
+      <c r="I108" s="15">
+        <v>-1787068</v>
+      </c>
+      <c r="J108" s="15">
         <v>-1662172</v>
       </c>
-      <c r="F106" s="15">
+      <c r="K108" s="15">
         <v>-2965325</v>
       </c>
-      <c r="G106" s="15">
+      <c r="L108" s="15">
         <v>-2975725</v>
       </c>
-      <c r="H106" s="15">
+      <c r="M108" s="15">
         <v>-3481584</v>
       </c>
-      <c r="I106" s="15">
+      <c r="N108" s="15">
         <v>-3660383</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2853,30 +4279,28 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B110" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2885,218 +4309,410 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="8" t="s">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9">
-        <v>185688</v>
-      </c>
-      <c r="F112" s="9">
-        <v>483443</v>
-      </c>
-      <c r="G112" s="9">
-        <v>345071</v>
-      </c>
-      <c r="H112" s="9">
-        <v>381006</v>
-      </c>
-      <c r="I112" s="9">
-        <v>700774</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
+      <c r="K112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M112" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N112" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9">
-        <v>271770</v>
+        <v>408528</v>
       </c>
       <c r="F114" s="9">
-        <v>351154</v>
+        <v>528998</v>
       </c>
       <c r="G114" s="9">
-        <v>543118</v>
+        <v>265287</v>
       </c>
       <c r="H114" s="9">
-        <v>962743</v>
+        <v>236773</v>
       </c>
       <c r="I114" s="9">
-        <v>1191911</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>404684</v>
+      </c>
+      <c r="J114" s="9">
+        <v>185688</v>
+      </c>
+      <c r="K114" s="9">
+        <v>483443</v>
+      </c>
+      <c r="L114" s="9">
+        <v>345071</v>
+      </c>
+      <c r="M114" s="9">
+        <v>381006</v>
+      </c>
+      <c r="N114" s="9">
+        <v>700774</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>1078645</v>
+        <v>-122858</v>
       </c>
       <c r="F115" s="11">
-        <v>525820</v>
+        <v>-50084</v>
       </c>
       <c r="G115" s="11">
-        <v>883163</v>
+        <v>-184290</v>
       </c>
       <c r="H115" s="11">
-        <v>1154468</v>
-      </c>
-      <c r="I115" s="11">
-        <v>1115656</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-34032</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
+        <v>770526</v>
+      </c>
+      <c r="F116" s="9">
+        <v>641617</v>
+      </c>
+      <c r="G116" s="9">
+        <v>644995</v>
+      </c>
+      <c r="H116" s="9">
+        <v>514920</v>
+      </c>
+      <c r="I116" s="9">
+        <v>715158</v>
+      </c>
+      <c r="J116" s="9">
+        <v>271770</v>
+      </c>
+      <c r="K116" s="9">
+        <v>351154</v>
+      </c>
+      <c r="L116" s="9">
+        <v>543118</v>
+      </c>
+      <c r="M116" s="9">
+        <v>962743</v>
+      </c>
+      <c r="N116" s="9">
+        <v>1191911</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11">
+        <v>310495</v>
+      </c>
+      <c r="F117" s="11">
+        <v>177079</v>
+      </c>
+      <c r="G117" s="11">
+        <v>366135</v>
+      </c>
+      <c r="H117" s="11">
+        <v>568845</v>
+      </c>
+      <c r="I117" s="11">
+        <v>1246460</v>
+      </c>
+      <c r="J117" s="11">
+        <v>1078645</v>
+      </c>
+      <c r="K117" s="11">
+        <v>525820</v>
+      </c>
+      <c r="L117" s="11">
+        <v>883163</v>
+      </c>
+      <c r="M117" s="11">
+        <v>1154468</v>
+      </c>
+      <c r="N117" s="11">
+        <v>1115656</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9">
+        <v>-240368</v>
+      </c>
+      <c r="F118" s="9">
+        <v>-141395</v>
+      </c>
+      <c r="G118" s="9">
+        <v>-112756</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="9">
+        <v>-647895</v>
+      </c>
+      <c r="J118" s="9">
         <v>578406</v>
       </c>
-      <c r="F116" s="9">
+      <c r="K118" s="9">
         <v>69489</v>
       </c>
-      <c r="G116" s="9">
+      <c r="L118" s="9">
         <v>-39042</v>
       </c>
-      <c r="H116" s="9">
+      <c r="M118" s="9">
         <v>-140791</v>
       </c>
-      <c r="I116" s="9">
+      <c r="N118" s="9">
         <v>179833</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B117" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B118" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>13</v>
+      <c r="E119" s="11">
+        <v>74714</v>
+      </c>
+      <c r="F119" s="11">
+        <v>108271</v>
+      </c>
+      <c r="G119" s="11">
+        <v>50381</v>
+      </c>
+      <c r="H119" s="11">
+        <v>4973</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B120" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15">
+        <v>18</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9">
+        <v>-3139</v>
+      </c>
+      <c r="F120" s="9">
+        <v>-6882</v>
+      </c>
+      <c r="G120" s="9">
+        <v>10502</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1106</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11">
+        <v>0</v>
+      </c>
+      <c r="F121" s="11">
+        <v>6329</v>
+      </c>
+      <c r="G121" s="11">
+        <v>2887</v>
+      </c>
+      <c r="H121" s="11">
+        <v>4195</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N121" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15">
+        <v>1197898</v>
+      </c>
+      <c r="F122" s="15">
+        <v>1263933</v>
+      </c>
+      <c r="G122" s="15">
+        <v>1043141</v>
+      </c>
+      <c r="H122" s="15">
+        <v>1296780</v>
+      </c>
+      <c r="I122" s="15">
+        <v>1718407</v>
+      </c>
+      <c r="J122" s="15">
         <v>2114509</v>
       </c>
-      <c r="F120" s="15">
+      <c r="K122" s="15">
         <v>1429906</v>
       </c>
-      <c r="G120" s="15">
+      <c r="L122" s="15">
         <v>1732310</v>
       </c>
-      <c r="H120" s="15">
+      <c r="M122" s="15">
         <v>2357426</v>
       </c>
-      <c r="I120" s="15">
+      <c r="N122" s="15">
         <v>3188174</v>
       </c>
     </row>

--- a/database/industries/darou/dalber/product/quarterly.xlsx
+++ b/database/industries/darou/dalber/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dalber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CDED2-EC09-4562-B164-000F3EEB3FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D196E8-E5C4-4CDC-98E5-261ABB969F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مایعات</t>
   </si>
   <si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>عدد / ریال</t>
-  </si>
-  <si>
-    <t>00 / ریال</t>
   </si>
   <si>
     <t>جعبه صدعددی / ریال</t>
@@ -653,12 +650,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -673,7 +670,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +687,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,7 +704,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -722,7 +719,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -739,7 +736,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -756,7 +753,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -771,7 +768,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -808,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -823,7 +820,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -832,37 +829,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>108062</v>
+        <v>29691940</v>
       </c>
       <c r="F10" s="9">
-        <v>29691940</v>
+        <v>38138743</v>
       </c>
       <c r="G10" s="9">
-        <v>38138743</v>
+        <v>5249386</v>
       </c>
       <c r="H10" s="9">
-        <v>5249386</v>
+        <v>6219459</v>
       </c>
       <c r="I10" s="9">
-        <v>6219459</v>
+        <v>4838868</v>
       </c>
       <c r="J10" s="9">
-        <v>4838868</v>
+        <v>6228958</v>
       </c>
       <c r="K10" s="9">
-        <v>6228958</v>
+        <v>7872909</v>
       </c>
       <c r="L10" s="9">
-        <v>7872909</v>
+        <v>9326138</v>
       </c>
       <c r="M10" s="9">
-        <v>9326138</v>
+        <v>12153505</v>
       </c>
       <c r="N10" s="9">
-        <v>12153505</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12080983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -899,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -908,37 +905,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>7226889</v>
+        <v>7869569</v>
       </c>
       <c r="F12" s="9">
-        <v>7869569</v>
+        <v>6494280</v>
       </c>
       <c r="G12" s="9">
-        <v>6494280</v>
+        <v>4954231</v>
       </c>
       <c r="H12" s="9">
-        <v>4954231</v>
+        <v>5838206</v>
       </c>
       <c r="I12" s="9">
-        <v>5838206</v>
+        <v>5326032</v>
       </c>
       <c r="J12" s="9">
-        <v>5326032</v>
+        <v>4503825</v>
       </c>
       <c r="K12" s="9">
-        <v>4503825</v>
+        <v>3927120</v>
       </c>
       <c r="L12" s="9">
-        <v>3927120</v>
+        <v>5374052</v>
       </c>
       <c r="M12" s="9">
-        <v>5374052</v>
+        <v>6654721</v>
       </c>
       <c r="N12" s="9">
-        <v>6654721</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6421899</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -947,37 +944,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>172016</v>
+        <v>213261</v>
       </c>
       <c r="F13" s="11">
-        <v>213261</v>
+        <v>227445</v>
       </c>
       <c r="G13" s="11">
-        <v>227445</v>
+        <v>202666</v>
       </c>
       <c r="H13" s="11">
-        <v>202666</v>
+        <v>220548</v>
       </c>
       <c r="I13" s="11">
-        <v>220548</v>
+        <v>235861</v>
       </c>
       <c r="J13" s="11">
-        <v>235861</v>
+        <v>222376</v>
       </c>
       <c r="K13" s="11">
-        <v>222376</v>
+        <v>182236</v>
       </c>
       <c r="L13" s="11">
-        <v>182236</v>
+        <v>272226</v>
       </c>
       <c r="M13" s="11">
-        <v>272226</v>
+        <v>279500</v>
       </c>
       <c r="N13" s="11">
-        <v>279500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>255704</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1031,8 +1028,8 @@
       <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
@@ -1053,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
@@ -1170,44 +1167,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
-        <v>7506967</v>
+        <v>37774770</v>
       </c>
       <c r="F19" s="13">
-        <v>37774770</v>
+        <v>44860468</v>
       </c>
       <c r="G19" s="13">
-        <v>44860468</v>
+        <v>10406283</v>
       </c>
       <c r="H19" s="13">
-        <v>10406283</v>
+        <v>12278213</v>
       </c>
       <c r="I19" s="13">
-        <v>12278213</v>
+        <v>10400761</v>
       </c>
       <c r="J19" s="13">
-        <v>10400761</v>
+        <v>10955159</v>
       </c>
       <c r="K19" s="13">
-        <v>10955159</v>
+        <v>11982265</v>
       </c>
       <c r="L19" s="13">
-        <v>11982265</v>
+        <v>14972416</v>
       </c>
       <c r="M19" s="13">
-        <v>14972416</v>
+        <v>19087726</v>
       </c>
       <c r="N19" s="13">
-        <v>19087726</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18758586</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1222,7 +1219,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1237,7 +1234,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1252,7 +1249,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1304,7 +1301,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
@@ -1350,37 +1347,37 @@
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>9214486</v>
+        <v>2458741</v>
       </c>
       <c r="F26" s="11">
-        <v>2458741</v>
+        <v>3039723</v>
       </c>
       <c r="G26" s="11">
-        <v>3039723</v>
+        <v>3881141</v>
       </c>
       <c r="H26" s="11">
-        <v>3881141</v>
+        <v>6525428</v>
       </c>
       <c r="I26" s="11">
-        <v>6525428</v>
-      </c>
-      <c r="J26" s="11">
         <v>7273160</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>18</v>
+      <c r="J26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="11">
+        <v>8314944</v>
       </c>
       <c r="L26" s="11">
-        <v>8314944</v>
+        <v>9903292</v>
       </c>
       <c r="M26" s="11">
-        <v>9903292</v>
+        <v>11800925</v>
       </c>
       <c r="N26" s="11">
-        <v>11800925</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10573299</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>33</v>
       </c>
@@ -1434,8 +1431,8 @@
       <c r="G28" s="11">
         <v>0</v>
       </c>
-      <c r="H28" s="11">
-        <v>0</v>
+      <c r="H28" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>18</v>
@@ -1456,7 +1453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
@@ -1473,29 +1470,29 @@
       <c r="G29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="H29" s="9">
         <v>5831798</v>
       </c>
+      <c r="I29" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="J29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>18</v>
+      <c r="K29" s="9">
+        <v>5748409</v>
       </c>
       <c r="L29" s="9">
-        <v>5748409</v>
+        <v>7846389</v>
       </c>
       <c r="M29" s="9">
-        <v>7846389</v>
+        <v>6933007</v>
       </c>
       <c r="N29" s="9">
-        <v>6933007</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5673808</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1504,17 +1501,17 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>6722983</v>
+        <v>5933503</v>
       </c>
       <c r="F30" s="11">
-        <v>5933503</v>
+        <v>4898506</v>
       </c>
       <c r="G30" s="11">
-        <v>4898506</v>
-      </c>
-      <c r="H30" s="11">
         <v>5018533</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I30" s="11" t="s">
         <v>18</v>
       </c>
@@ -1534,7 +1531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>19</v>
       </c>
@@ -1552,12 +1549,12 @@
       <c r="H31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="I31" s="9">
         <v>3949874</v>
       </c>
+      <c r="J31" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="K31" s="9" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>21</v>
       </c>
@@ -1588,29 +1585,29 @@
       <c r="G32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="H32" s="11">
         <v>185341</v>
       </c>
+      <c r="I32" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>18</v>
+      <c r="K32" s="11">
+        <v>192493</v>
       </c>
       <c r="L32" s="11">
-        <v>192493</v>
+        <v>317684</v>
       </c>
       <c r="M32" s="11">
-        <v>317684</v>
+        <v>250458</v>
       </c>
       <c r="N32" s="11">
-        <v>250458</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>257424</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>21</v>
       </c>
@@ -1619,17 +1616,17 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>171321</v>
+        <v>-96575</v>
       </c>
       <c r="F33" s="9">
-        <v>-96575</v>
+        <v>208535</v>
       </c>
       <c r="G33" s="9">
-        <v>208535</v>
-      </c>
-      <c r="H33" s="9">
         <v>243099</v>
       </c>
+      <c r="H33" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I33" s="9" t="s">
         <v>18</v>
       </c>
@@ -1649,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>21</v>
       </c>
@@ -1667,12 +1664,12 @@
       <c r="H34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="11">
         <v>214744</v>
       </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>24</v>
       </c>
@@ -1737,32 +1734,32 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="11">
+        <v>-45589</v>
+      </c>
+      <c r="I36" s="11">
+        <v>45589</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>-79815</v>
+      </c>
+      <c r="L36" s="11">
+        <v>79815</v>
+      </c>
+      <c r="M36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="11">
-        <v>-45589</v>
-      </c>
-      <c r="J36" s="11">
-        <v>45589</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="11">
-        <v>-79815</v>
-      </c>
-      <c r="M36" s="11">
-        <v>79815</v>
-      </c>
       <c r="N36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-489716</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
@@ -1896,8 +1893,8 @@
       <c r="G40" s="11">
         <v>0</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
+      <c r="H40" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>18</v>
@@ -1918,13 +1915,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
+      <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
         <v>18</v>
@@ -1957,7 +1952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>39</v>
       </c>
@@ -1996,7 +1991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>41</v>
       </c>
@@ -2074,7 +2069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2091,8 +2086,8 @@
       <c r="G45" s="9">
         <v>0</v>
       </c>
-      <c r="H45" s="9">
-        <v>0</v>
+      <c r="H45" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>18</v>
@@ -2113,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>43</v>
       </c>
@@ -2130,8 +2125,8 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>18</v>
@@ -2152,44 +2147,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>16108790</v>
+        <v>8295669</v>
       </c>
       <c r="F47" s="15">
-        <v>8295669</v>
+        <v>8146764</v>
       </c>
       <c r="G47" s="15">
-        <v>8146764</v>
+        <v>9142773</v>
       </c>
       <c r="H47" s="15">
-        <v>9142773</v>
+        <v>12496978</v>
       </c>
       <c r="I47" s="15">
-        <v>12496978</v>
+        <v>11483367</v>
       </c>
       <c r="J47" s="15">
-        <v>11483367</v>
+        <v>0</v>
       </c>
       <c r="K47" s="15">
-        <v>0</v>
+        <v>14176031</v>
       </c>
       <c r="L47" s="15">
-        <v>14176031</v>
+        <v>18147180</v>
       </c>
       <c r="M47" s="15">
-        <v>18147180</v>
+        <v>18984390</v>
       </c>
       <c r="N47" s="15">
-        <v>18984390</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16014815</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2204,7 +2199,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2219,7 +2214,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2234,7 +2229,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>44</v>
       </c>
@@ -2271,7 +2266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2286,7 +2281,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>32</v>
       </c>
@@ -2325,7 +2320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>15</v>
       </c>
@@ -2334,37 +2329,37 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>621363</v>
+        <v>598587</v>
       </c>
       <c r="F54" s="11">
-        <v>598587</v>
+        <v>304071</v>
       </c>
       <c r="G54" s="11">
-        <v>304071</v>
+        <v>438170</v>
       </c>
       <c r="H54" s="11">
-        <v>438170</v>
+        <v>688845</v>
       </c>
       <c r="I54" s="11">
-        <v>688845</v>
-      </c>
-      <c r="J54" s="11">
         <v>630765</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>18</v>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11">
+        <v>805139</v>
       </c>
       <c r="L54" s="11">
-        <v>805139</v>
+        <v>1029647</v>
       </c>
       <c r="M54" s="11">
-        <v>1029647</v>
+        <v>1459258</v>
       </c>
       <c r="N54" s="11">
-        <v>1459258</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1456328</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>33</v>
       </c>
@@ -2412,17 +2407,17 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>-122858</v>
+        <v>-50084</v>
       </c>
       <c r="F56" s="11">
-        <v>-50084</v>
+        <v>-184290</v>
       </c>
       <c r="G56" s="11">
-        <v>-184290</v>
-      </c>
-      <c r="H56" s="11">
         <v>-34032</v>
       </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I56" s="11" t="s">
         <v>18</v>
       </c>
@@ -2442,7 +2437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>19</v>
       </c>
@@ -2451,37 +2446,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>1318982</v>
+        <v>1120205</v>
       </c>
       <c r="F57" s="9">
-        <v>1120205</v>
+        <v>1526252</v>
       </c>
       <c r="G57" s="9">
-        <v>1526252</v>
+        <v>1074999</v>
       </c>
       <c r="H57" s="9">
-        <v>1074999</v>
+        <v>1461106</v>
       </c>
       <c r="I57" s="9">
-        <v>1461106</v>
-      </c>
-      <c r="J57" s="9">
         <v>1154420</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>18</v>
+      <c r="J57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="9">
+        <v>1346674</v>
       </c>
       <c r="L57" s="9">
-        <v>1346674</v>
+        <v>2039188</v>
       </c>
       <c r="M57" s="9">
-        <v>2039188</v>
+        <v>2499322</v>
       </c>
       <c r="N57" s="9">
-        <v>2499322</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2365613</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
@@ -2490,37 +2485,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>612503</v>
+        <v>414040</v>
       </c>
       <c r="F58" s="11">
-        <v>414040</v>
+        <v>1059706</v>
       </c>
       <c r="G58" s="11">
-        <v>1059706</v>
+        <v>1350018</v>
       </c>
       <c r="H58" s="11">
-        <v>1350018</v>
+        <v>2003419</v>
       </c>
       <c r="I58" s="11">
-        <v>2003419</v>
-      </c>
-      <c r="J58" s="11">
         <v>2005959</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>18</v>
+      <c r="J58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="11">
+        <v>2595264</v>
       </c>
       <c r="L58" s="11">
-        <v>2595264</v>
+        <v>2910966</v>
       </c>
       <c r="M58" s="11">
-        <v>2910966</v>
+        <v>2710144</v>
       </c>
       <c r="N58" s="11">
-        <v>2710144</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2271281</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>24</v>
       </c>
@@ -2568,37 +2563,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>-240368</v>
+        <v>-6512</v>
       </c>
       <c r="F60" s="11">
-        <v>-6512</v>
-      </c>
-      <c r="G60" s="11">
         <v>-467584</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>18</v>
+      <c r="G60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="11">
+        <v>-647895</v>
       </c>
       <c r="I60" s="11">
-        <v>-647895</v>
-      </c>
-      <c r="J60" s="11">
         <v>-14463</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>18</v>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11">
+        <v>-39042</v>
       </c>
       <c r="L60" s="11">
-        <v>-39042</v>
+        <v>-140791</v>
       </c>
       <c r="M60" s="11">
-        <v>-140791</v>
+        <v>-61781</v>
       </c>
       <c r="N60" s="11">
-        <v>-61781</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-116050</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>28</v>
       </c>
@@ -2715,7 +2710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>37</v>
       </c>
@@ -2724,17 +2719,17 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>103417</v>
+        <v>150081</v>
       </c>
       <c r="F64" s="11">
-        <v>150081</v>
+        <v>122130</v>
       </c>
       <c r="G64" s="11">
-        <v>122130</v>
-      </c>
-      <c r="H64" s="11">
         <v>8072</v>
       </c>
+      <c r="H64" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I64" s="11" t="s">
         <v>18</v>
       </c>
@@ -2754,7 +2749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>38</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>39</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>40</v>
       </c>
@@ -2871,7 +2866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>41</v>
       </c>
@@ -2910,7 +2905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>42</v>
       </c>
@@ -2919,17 +2914,17 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>5249</v>
+        <v>-12244</v>
       </c>
       <c r="F69" s="9">
-        <v>-12244</v>
+        <v>10514</v>
       </c>
       <c r="G69" s="9">
-        <v>10514</v>
-      </c>
-      <c r="H69" s="9">
         <v>6853</v>
       </c>
+      <c r="H69" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I69" s="9" t="s">
         <v>18</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>43</v>
       </c>
@@ -2958,17 +2953,17 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>0</v>
+        <v>18738</v>
       </c>
       <c r="F70" s="11">
-        <v>18738</v>
+        <v>1131</v>
       </c>
       <c r="G70" s="11">
-        <v>1131</v>
-      </c>
-      <c r="H70" s="11">
         <v>9745</v>
       </c>
+      <c r="H70" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I70" s="11" t="s">
         <v>18</v>
       </c>
@@ -2988,44 +2983,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>2298288</v>
+        <v>2232811</v>
       </c>
       <c r="F71" s="15">
-        <v>2232811</v>
+        <v>2371930</v>
       </c>
       <c r="G71" s="15">
-        <v>2371930</v>
+        <v>2853825</v>
       </c>
       <c r="H71" s="15">
-        <v>2853825</v>
+        <v>3505475</v>
       </c>
       <c r="I71" s="15">
-        <v>3505475</v>
+        <v>3776681</v>
       </c>
       <c r="J71" s="15">
-        <v>3776681</v>
+        <v>0</v>
       </c>
       <c r="K71" s="15">
-        <v>0</v>
+        <v>4708035</v>
       </c>
       <c r="L71" s="15">
-        <v>4708035</v>
+        <v>5839010</v>
       </c>
       <c r="M71" s="15">
-        <v>5839010</v>
+        <v>6606943</v>
       </c>
       <c r="N71" s="15">
-        <v>6606943</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5977172</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3040,7 +3035,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3055,7 +3050,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3070,7 +3065,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>46</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3122,7 +3117,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>32</v>
       </c>
@@ -3161,7 +3156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>15</v>
       </c>
@@ -3170,37 +3165,37 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>67433</v>
+        <v>102083</v>
       </c>
       <c r="F78" s="11">
-        <v>102083</v>
+        <v>119343</v>
       </c>
       <c r="G78" s="11">
-        <v>119343</v>
+        <v>112897</v>
       </c>
       <c r="H78" s="11">
-        <v>112897</v>
+        <v>105563</v>
       </c>
       <c r="I78" s="11">
-        <v>105563</v>
+        <v>74180</v>
       </c>
       <c r="J78" s="11">
-        <v>74180</v>
+        <v>123435</v>
       </c>
       <c r="K78" s="11">
-        <v>123435</v>
+        <v>96830</v>
       </c>
       <c r="L78" s="11">
-        <v>96830</v>
+        <v>103970</v>
       </c>
       <c r="M78" s="11">
-        <v>103970</v>
+        <v>123656</v>
       </c>
       <c r="N78" s="11">
-        <v>123656</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137736</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>17</v>
       </c>
@@ -3239,7 +3234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>19</v>
       </c>
@@ -3287,37 +3282,37 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>196190</v>
+        <v>190864</v>
       </c>
       <c r="F81" s="9">
-        <v>190864</v>
+        <v>236701</v>
       </c>
       <c r="G81" s="9">
-        <v>236701</v>
+        <v>214206</v>
       </c>
       <c r="H81" s="9">
-        <v>214206</v>
+        <v>250541</v>
       </c>
       <c r="I81" s="9">
-        <v>250541</v>
+        <v>229980</v>
       </c>
       <c r="J81" s="9">
-        <v>229980</v>
+        <v>222958</v>
       </c>
       <c r="K81" s="9">
-        <v>222958</v>
+        <v>234269</v>
       </c>
       <c r="L81" s="9">
-        <v>234269</v>
+        <v>259889</v>
       </c>
       <c r="M81" s="9">
-        <v>259889</v>
+        <v>360496</v>
       </c>
       <c r="N81" s="9">
-        <v>360496</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>416936</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>21</v>
       </c>
@@ -3326,37 +3321,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>3575178</v>
+        <v>2335034</v>
       </c>
       <c r="F82" s="11">
-        <v>2335034</v>
+        <v>4574321</v>
       </c>
       <c r="G82" s="11">
-        <v>4574321</v>
+        <v>5553367</v>
       </c>
       <c r="H82" s="11">
-        <v>5553367</v>
+        <v>10809368</v>
       </c>
       <c r="I82" s="11">
-        <v>10809368</v>
+        <v>8150924</v>
       </c>
       <c r="J82" s="11">
-        <v>8150924</v>
+        <v>11239821</v>
       </c>
       <c r="K82" s="11">
-        <v>11239821</v>
+        <v>13482381</v>
       </c>
       <c r="L82" s="11">
-        <v>13482381</v>
+        <v>9163087</v>
       </c>
       <c r="M82" s="11">
-        <v>9163087</v>
+        <v>10820752</v>
       </c>
       <c r="N82" s="11">
-        <v>10820752</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8823113</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>22</v>
       </c>
@@ -3395,7 +3390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>24</v>
       </c>
@@ -3412,29 +3407,29 @@
       <c r="G84" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>18</v>
+      <c r="H84" s="11">
+        <v>14211652</v>
       </c>
       <c r="I84" s="11">
-        <v>14211652</v>
-      </c>
-      <c r="J84" s="11">
         <v>12687403</v>
       </c>
-      <c r="K84" s="11" t="s">
-        <v>18</v>
+      <c r="J84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="11">
+        <v>489156</v>
       </c>
       <c r="L84" s="11">
-        <v>489156</v>
-      </c>
-      <c r="M84" s="11">
         <v>-1763967</v>
       </c>
-      <c r="N84" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="11">
+        <v>236974</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>25</v>
       </c>
@@ -3473,7 +3468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +3507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>28</v>
       </c>
@@ -3551,7 +3546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>37</v>
       </c>
@@ -3590,12 +3585,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
@@ -3629,7 +3624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>39</v>
       </c>
@@ -3668,12 +3663,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
@@ -3707,12 +3702,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
@@ -3746,12 +3741,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
@@ -3785,12 +3780,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
@@ -3824,7 +3819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3839,7 +3834,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3854,7 +3849,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3869,9 +3864,9 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3906,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3921,7 +3916,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>15</v>
       </c>
@@ -3930,37 +3925,37 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>-212835</v>
+        <v>-219132</v>
       </c>
       <c r="F100" s="9">
-        <v>-219132</v>
+        <v>-204861</v>
       </c>
       <c r="G100" s="9">
-        <v>-204861</v>
+        <v>-201397</v>
       </c>
       <c r="H100" s="9">
-        <v>-201397</v>
+        <v>-284161</v>
       </c>
       <c r="I100" s="9">
-        <v>-284161</v>
+        <v>-353832</v>
       </c>
       <c r="J100" s="9">
-        <v>-353832</v>
+        <v>-296775</v>
       </c>
       <c r="K100" s="9">
-        <v>-296775</v>
+        <v>-460068</v>
       </c>
       <c r="L100" s="9">
-        <v>-460068</v>
+        <v>-648641</v>
       </c>
       <c r="M100" s="9">
-        <v>-648641</v>
+        <v>-758484</v>
       </c>
       <c r="N100" s="9">
-        <v>-758484</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-919392</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>33</v>
       </c>
@@ -3977,8 +3972,8 @@
       <c r="G101" s="11">
         <v>0</v>
       </c>
-      <c r="H101" s="11">
-        <v>0</v>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>18</v>
@@ -3999,7 +3994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>19</v>
       </c>
@@ -4008,37 +4003,37 @@
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
-        <v>-548456</v>
+        <v>-491471</v>
       </c>
       <c r="F102" s="9">
-        <v>-491471</v>
+        <v>-588480</v>
       </c>
       <c r="G102" s="9">
-        <v>-588480</v>
+        <v>-560079</v>
       </c>
       <c r="H102" s="9">
-        <v>-560079</v>
+        <v>-745948</v>
       </c>
       <c r="I102" s="9">
-        <v>-745948</v>
+        <v>-636623</v>
       </c>
       <c r="J102" s="9">
-        <v>-636623</v>
+        <v>-641874</v>
       </c>
       <c r="K102" s="9">
-        <v>-641874</v>
+        <v>-803556</v>
       </c>
       <c r="L102" s="9">
-        <v>-803556</v>
+        <v>-1076445</v>
       </c>
       <c r="M102" s="9">
-        <v>-1076445</v>
+        <v>-1307411</v>
       </c>
       <c r="N102" s="9">
-        <v>-1307411</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1160867</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -4047,37 +4042,37 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>-302008</v>
+        <v>-248154</v>
       </c>
       <c r="F103" s="11">
-        <v>-248154</v>
+        <v>-610670</v>
       </c>
       <c r="G103" s="11">
-        <v>-610670</v>
+        <v>-781173</v>
       </c>
       <c r="H103" s="11">
-        <v>-781173</v>
+        <v>-756959</v>
       </c>
       <c r="I103" s="11">
-        <v>-756959</v>
+        <v>-671717</v>
       </c>
       <c r="J103" s="11">
-        <v>-671717</v>
+        <v>-2026676</v>
       </c>
       <c r="K103" s="11">
-        <v>-2026676</v>
+        <v>-1712101</v>
       </c>
       <c r="L103" s="11">
-        <v>-1712101</v>
+        <v>-1756498</v>
       </c>
       <c r="M103" s="11">
-        <v>-1756498</v>
+        <v>-1594488</v>
       </c>
       <c r="N103" s="11">
-        <v>-1594488</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1320180</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>24</v>
       </c>
@@ -4091,11 +4086,11 @@
       <c r="F104" s="9">
         <v>0</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="9">
         <v>0</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="I104" s="9">
         <v>0</v>
@@ -4116,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>37</v>
       </c>
@@ -4125,17 +4120,17 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>-28703</v>
+        <v>-41810</v>
       </c>
       <c r="F105" s="11">
-        <v>-41810</v>
+        <v>-71749</v>
       </c>
       <c r="G105" s="11">
-        <v>-71749</v>
-      </c>
-      <c r="H105" s="11">
         <v>-3099</v>
       </c>
+      <c r="H105" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I105" s="11" t="s">
         <v>18</v>
       </c>
@@ -4155,7 +4150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>42</v>
       </c>
@@ -4164,17 +4159,17 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>-8388</v>
+        <v>5362</v>
       </c>
       <c r="F106" s="9">
-        <v>5362</v>
+        <v>-12</v>
       </c>
       <c r="G106" s="9">
-        <v>-12</v>
-      </c>
-      <c r="H106" s="9">
         <v>-5747</v>
       </c>
+      <c r="H106" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I106" s="9" t="s">
         <v>18</v>
       </c>
@@ -4194,7 +4189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>43</v>
       </c>
@@ -4203,17 +4198,17 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>0</v>
+        <v>-12409</v>
       </c>
       <c r="F107" s="11">
-        <v>-12409</v>
+        <v>1756</v>
       </c>
       <c r="G107" s="11">
-        <v>1756</v>
-      </c>
-      <c r="H107" s="11">
         <v>-5550</v>
       </c>
+      <c r="H107" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I107" s="11" t="s">
         <v>18</v>
       </c>
@@ -4233,44 +4228,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15">
-        <v>-1100390</v>
+        <v>-1007614</v>
       </c>
       <c r="F108" s="15">
-        <v>-1007614</v>
+        <v>-1474016</v>
       </c>
       <c r="G108" s="15">
-        <v>-1474016</v>
+        <v>-1557045</v>
       </c>
       <c r="H108" s="15">
-        <v>-1557045</v>
+        <v>-1787068</v>
       </c>
       <c r="I108" s="15">
-        <v>-1787068</v>
+        <v>-1662172</v>
       </c>
       <c r="J108" s="15">
-        <v>-1662172</v>
+        <v>-2965325</v>
       </c>
       <c r="K108" s="15">
-        <v>-2965325</v>
+        <v>-2975725</v>
       </c>
       <c r="L108" s="15">
-        <v>-2975725</v>
+        <v>-3481584</v>
       </c>
       <c r="M108" s="15">
-        <v>-3481584</v>
+        <v>-3660383</v>
       </c>
       <c r="N108" s="15">
-        <v>-3660383</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3400439</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4285,7 +4280,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4300,7 +4295,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4315,9 +4310,9 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -4352,7 +4347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4367,7 +4362,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>15</v>
       </c>
@@ -4376,37 +4371,37 @@
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9">
-        <v>408528</v>
+        <v>528998</v>
       </c>
       <c r="F114" s="9">
-        <v>528998</v>
+        <v>265287</v>
       </c>
       <c r="G114" s="9">
-        <v>265287</v>
+        <v>236773</v>
       </c>
       <c r="H114" s="9">
-        <v>236773</v>
+        <v>404684</v>
       </c>
       <c r="I114" s="9">
-        <v>404684</v>
+        <v>185688</v>
       </c>
       <c r="J114" s="9">
-        <v>185688</v>
+        <v>483443</v>
       </c>
       <c r="K114" s="9">
-        <v>483443</v>
+        <v>345071</v>
       </c>
       <c r="L114" s="9">
-        <v>345071</v>
+        <v>381006</v>
       </c>
       <c r="M114" s="9">
-        <v>381006</v>
+        <v>700774</v>
       </c>
       <c r="N114" s="9">
-        <v>700774</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>536936</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>33</v>
       </c>
@@ -4415,17 +4410,17 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>-122858</v>
+        <v>-50084</v>
       </c>
       <c r="F115" s="11">
-        <v>-50084</v>
+        <v>-184290</v>
       </c>
       <c r="G115" s="11">
-        <v>-184290</v>
-      </c>
-      <c r="H115" s="11">
         <v>-34032</v>
       </c>
+      <c r="H115" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I115" s="11" t="s">
         <v>18</v>
       </c>
@@ -4445,7 +4440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>19</v>
       </c>
@@ -4454,37 +4449,37 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
-        <v>770526</v>
+        <v>641617</v>
       </c>
       <c r="F116" s="9">
-        <v>641617</v>
+        <v>644995</v>
       </c>
       <c r="G116" s="9">
-        <v>644995</v>
+        <v>514920</v>
       </c>
       <c r="H116" s="9">
-        <v>514920</v>
+        <v>715158</v>
       </c>
       <c r="I116" s="9">
-        <v>715158</v>
+        <v>271770</v>
       </c>
       <c r="J116" s="9">
-        <v>271770</v>
+        <v>351154</v>
       </c>
       <c r="K116" s="9">
-        <v>351154</v>
+        <v>543118</v>
       </c>
       <c r="L116" s="9">
-        <v>543118</v>
+        <v>962743</v>
       </c>
       <c r="M116" s="9">
-        <v>962743</v>
+        <v>1191911</v>
       </c>
       <c r="N116" s="9">
-        <v>1191911</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1204746</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>21</v>
       </c>
@@ -4493,37 +4488,37 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>310495</v>
+        <v>177079</v>
       </c>
       <c r="F117" s="11">
-        <v>177079</v>
+        <v>366135</v>
       </c>
       <c r="G117" s="11">
-        <v>366135</v>
+        <v>568845</v>
       </c>
       <c r="H117" s="11">
-        <v>568845</v>
+        <v>1246460</v>
       </c>
       <c r="I117" s="11">
-        <v>1246460</v>
+        <v>1078645</v>
       </c>
       <c r="J117" s="11">
-        <v>1078645</v>
+        <v>525820</v>
       </c>
       <c r="K117" s="11">
-        <v>525820</v>
+        <v>883163</v>
       </c>
       <c r="L117" s="11">
-        <v>883163</v>
+        <v>1154468</v>
       </c>
       <c r="M117" s="11">
-        <v>1154468</v>
+        <v>1115656</v>
       </c>
       <c r="N117" s="11">
-        <v>1115656</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>951101</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>24</v>
       </c>
@@ -4532,37 +4527,37 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
-        <v>-240368</v>
+        <v>-141395</v>
       </c>
       <c r="F118" s="9">
-        <v>-141395</v>
-      </c>
-      <c r="G118" s="9">
         <v>-112756</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>18</v>
+      <c r="G118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="9">
+        <v>-647895</v>
       </c>
       <c r="I118" s="9">
-        <v>-647895</v>
+        <v>578406</v>
       </c>
       <c r="J118" s="9">
-        <v>578406</v>
+        <v>69489</v>
       </c>
       <c r="K118" s="9">
-        <v>69489</v>
+        <v>-39042</v>
       </c>
       <c r="L118" s="9">
-        <v>-39042</v>
+        <v>-140791</v>
       </c>
       <c r="M118" s="9">
-        <v>-140791</v>
+        <v>179833</v>
       </c>
       <c r="N118" s="9">
-        <v>179833</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-357664</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>37</v>
       </c>
@@ -4571,17 +4566,17 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>74714</v>
+        <v>108271</v>
       </c>
       <c r="F119" s="11">
-        <v>108271</v>
+        <v>50381</v>
       </c>
       <c r="G119" s="11">
-        <v>50381</v>
-      </c>
-      <c r="H119" s="11">
         <v>4973</v>
       </c>
+      <c r="H119" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I119" s="11" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>42</v>
       </c>
@@ -4610,17 +4605,17 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>-3139</v>
+        <v>-6882</v>
       </c>
       <c r="F120" s="9">
-        <v>-6882</v>
+        <v>10502</v>
       </c>
       <c r="G120" s="9">
-        <v>10502</v>
-      </c>
-      <c r="H120" s="9">
         <v>1106</v>
       </c>
+      <c r="H120" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I120" s="9" t="s">
         <v>18</v>
       </c>
@@ -4640,7 +4635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>43</v>
       </c>
@@ -4649,17 +4644,17 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>0</v>
+        <v>6329</v>
       </c>
       <c r="F121" s="11">
-        <v>6329</v>
+        <v>2887</v>
       </c>
       <c r="G121" s="11">
-        <v>2887</v>
-      </c>
-      <c r="H121" s="11">
         <v>4195</v>
       </c>
+      <c r="H121" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I121" s="11" t="s">
         <v>18</v>
       </c>
@@ -4679,41 +4674,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15">
-        <v>1197898</v>
+        <v>1263933</v>
       </c>
       <c r="F122" s="15">
-        <v>1263933</v>
+        <v>1043141</v>
       </c>
       <c r="G122" s="15">
-        <v>1043141</v>
+        <v>1296780</v>
       </c>
       <c r="H122" s="15">
-        <v>1296780</v>
+        <v>1718407</v>
       </c>
       <c r="I122" s="15">
-        <v>1718407</v>
+        <v>2114509</v>
       </c>
       <c r="J122" s="15">
-        <v>2114509</v>
+        <v>1429906</v>
       </c>
       <c r="K122" s="15">
-        <v>1429906</v>
+        <v>1732310</v>
       </c>
       <c r="L122" s="15">
-        <v>1732310</v>
+        <v>2357426</v>
       </c>
       <c r="M122" s="15">
-        <v>2357426</v>
+        <v>3188174</v>
       </c>
       <c r="N122" s="15">
-        <v>3188174</v>
+        <v>2335119</v>
       </c>
     </row>
   </sheetData>
